--- a/media/uploads/Jononi Script Register.xlsx
+++ b/media/uploads/Jononi Script Register.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0F7C86-BF77-403D-AB6C-859854052BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://savethechildren1-my.sharepoint.com/personal/fyruz_zahin_savethechildren_org/Documents/Documents/Jononi scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5964C1-D12D-4DDD-A26F-4990C1C3C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facility MIS" sheetId="2" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
   <si>
     <t>Question SR</t>
   </si>
@@ -264,7 +269,7 @@
     <t># of neonatal death at the facility in the month</t>
   </si>
   <si>
-    <t>upload_file</t>
+    <t>file_MIS</t>
   </si>
   <si>
     <t>Please upload Signed MIS-3 Report in PDF Format</t>
@@ -273,88 +278,46 @@
     <t xml:space="preserve">PDF </t>
   </si>
   <si>
-    <t>anc_1</t>
-  </si>
-  <si>
     <t>ANC 1</t>
   </si>
   <si>
-    <t>anc_2</t>
-  </si>
-  <si>
     <t>ANC 2</t>
   </si>
   <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>anc_3</t>
-  </si>
-  <si>
     <t>ANC 3</t>
   </si>
   <si>
-    <t>anc_4</t>
-  </si>
-  <si>
     <t>ANC 4</t>
   </si>
   <si>
-    <t>1st_pnc_mother</t>
-  </si>
-  <si>
     <t>1st PNC Mother</t>
   </si>
   <si>
-    <t>2nd_pnc_mother</t>
-  </si>
-  <si>
     <t>2nd PNC Mother</t>
   </si>
   <si>
-    <t>3rd_pnc_mother</t>
-  </si>
-  <si>
     <t>3rd PNC Mother</t>
   </si>
   <si>
-    <t>4th_pnc_mother</t>
-  </si>
-  <si>
     <t>4th PNC Mother</t>
   </si>
   <si>
-    <t>1st_pnc_newborn</t>
-  </si>
-  <si>
     <t>1st PNC Newborn</t>
   </si>
   <si>
-    <t>2nd_pnc_newborn</t>
-  </si>
-  <si>
     <t>2nd PNC Newborn</t>
   </si>
   <si>
-    <t>3rd_pnc_newborn</t>
-  </si>
-  <si>
     <t>3rd PNC Newborn</t>
   </si>
   <si>
-    <t>4th_pnc_newborn</t>
-  </si>
-  <si>
     <t>4th PNC Newborn</t>
   </si>
   <si>
-    <t>Number_of_nvd_conducted</t>
-  </si>
-  <si>
-    <t>Number_of_PPFP_counseling</t>
-  </si>
-  <si>
-    <t>Please_upload_daily_performance_tracker_and_monthly_report_in_PDF_format</t>
+    <t>file_performance</t>
   </si>
   <si>
     <t>Please upload daily performance Tracker and Monthly Report in PDF Format</t>
@@ -363,7 +326,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>Registration_no</t>
+    <t>regi_no</t>
   </si>
   <si>
     <t>Registration No</t>
@@ -372,13 +335,13 @@
     <t>free text</t>
   </si>
   <si>
-    <t>serial_number</t>
+    <t>serial</t>
   </si>
   <si>
     <t>Serial number</t>
   </si>
   <si>
-    <t>visiting_date</t>
+    <t>vdate</t>
   </si>
   <si>
     <t>visiting date</t>
@@ -387,7 +350,7 @@
     <t>calender date</t>
   </si>
   <si>
-    <t>name_of_patients</t>
+    <t>name_bf</t>
   </si>
   <si>
     <t>Name of Patients</t>
@@ -396,13 +359,13 @@
     <t>text</t>
   </si>
   <si>
-    <t>age_of_patients</t>
+    <t>age</t>
   </si>
   <si>
     <t>Age of Patients</t>
   </si>
   <si>
-    <t>Husband's_name</t>
+    <t>name_bfs</t>
   </si>
   <si>
     <t>husband's name</t>
@@ -411,25 +374,25 @@
     <t>Text</t>
   </si>
   <si>
-    <t>address_of_the_patient</t>
+    <t>address</t>
   </si>
   <si>
     <t>Address of the patient</t>
   </si>
   <si>
-    <t>contact_numer</t>
+    <t>cellphone</t>
   </si>
   <si>
     <t>contact number</t>
   </si>
   <si>
-    <t>Referrer_name</t>
+    <t>referar_name</t>
   </si>
   <si>
     <t>referrer name</t>
   </si>
   <si>
-    <t>Referrer_designation</t>
+    <t>referar_designation</t>
   </si>
   <si>
     <t>referrer designation</t>
@@ -444,7 +407,7 @@
     <t>Gravida</t>
   </si>
   <si>
-    <t>Lmp</t>
+    <t>lmp</t>
   </si>
   <si>
     <t>LMP</t>
@@ -459,7 +422,7 @@
     <t>EDD</t>
   </si>
   <si>
-    <t>obstetric_history</t>
+    <t>history</t>
   </si>
   <si>
     <t>obstetric history</t>
@@ -483,37 +446,43 @@
     <t>No delivery</t>
   </si>
   <si>
+    <t>pulse</t>
+  </si>
+  <si>
     <t>Pulse</t>
   </si>
   <si>
-    <t>Systolic_number</t>
+    <t>systolic</t>
   </si>
   <si>
     <t>Systolic number</t>
   </si>
   <si>
-    <t>Diastolic_number</t>
+    <t>diastolic</t>
   </si>
   <si>
     <t>Diastolic number</t>
   </si>
   <si>
-    <t>Temperature_Fahrenheit</t>
+    <t>temperatures</t>
   </si>
   <si>
     <t>Temperature (Fahrenheit)</t>
   </si>
   <si>
+    <t>fm</t>
+  </si>
+  <si>
     <t>FM</t>
   </si>
   <si>
-    <t>Fetal_Heart_Rate _bit_min</t>
+    <t>fhr</t>
   </si>
   <si>
     <t>Fetal Heart Rate (bit/min)</t>
   </si>
   <si>
-    <t>Type_of_referral</t>
+    <t>ref_type</t>
   </si>
   <si>
     <t>Type of referral</t>
@@ -525,7 +494,7 @@
     <t>pnc</t>
   </si>
   <si>
-    <t>Referred_with_initial_management</t>
+    <t>referred_management</t>
   </si>
   <si>
     <t>Referred with initial management</t>
@@ -540,19 +509,19 @@
     <t>no</t>
   </si>
   <si>
-    <t>Please_state_which_management</t>
+    <t>management</t>
   </si>
   <si>
     <t>Please state which management</t>
   </si>
   <si>
-    <t>Referred_with_cause</t>
+    <t>referred_cause</t>
   </si>
   <si>
     <t>Referred with cause</t>
   </si>
   <si>
-    <t>Please_state_the_Major_Cause</t>
+    <t>cause</t>
   </si>
   <si>
     <t>Please state the Major Cause</t>
@@ -657,69 +626,60 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Please_mention_cause</t>
+    <t>other_cause</t>
   </si>
   <si>
     <t>Please mention cause</t>
   </si>
   <si>
-    <t>Referred_to</t>
+    <t>referred_to</t>
   </si>
   <si>
     <t>Referred to</t>
   </si>
   <si>
-    <t>Referred_Time</t>
+    <t>time</t>
   </si>
   <si>
     <t>Referred Time</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Did_she_selected_for_Cash_or_Kind_Assistance</t>
+    <t>need_assesment</t>
   </si>
   <si>
     <t>Did she selected for Cash or Kind Assistance</t>
   </si>
   <si>
-    <t>Why_she_select_for_assistance</t>
+    <t>why_select</t>
   </si>
   <si>
     <t>Why she select for assistance</t>
   </si>
   <si>
-    <t>Received_Cash_or_Kind_Form-Project_Fund?</t>
+    <t>need_assesment1</t>
   </si>
   <si>
     <t>Received Cash or Kind Form Project Fund?</t>
   </si>
   <si>
-    <t>Received_Cash_or_Kind_Form_Project_Fund?</t>
-  </si>
-  <si>
-    <t>Received_Cash_or_Kind_Form_Community_Fund?</t>
+    <t>need_assesment2</t>
   </si>
   <si>
     <t>Received Cash or Kind Form Community Fund?</t>
   </si>
   <si>
-    <t>How_much_money_tk_is_equal_to_assistance</t>
+    <t>taka</t>
   </si>
   <si>
     <t>How much money (tk) is equal to assistance</t>
   </si>
   <si>
-    <t>Please_upload_PDF_format_of_referral_slip_and_partograph_in_both_side</t>
+    <t>picture</t>
   </si>
   <si>
     <t>Please upload PDF format of referral slip and partograph in both side</t>
   </si>
   <si>
-    <t>Referred_To</t>
-  </si>
-  <si>
     <t>Referred To</t>
   </si>
   <si>
@@ -774,7 +734,7 @@
     <t>851008 - Taraganj Upazila Health Complex</t>
   </si>
   <si>
-    <t>upload_picture</t>
+    <t>picture2</t>
   </si>
   <si>
     <t>Please upload picture about receiving the amount from service provider/LGI</t>
@@ -783,13 +743,13 @@
     <t>image</t>
   </si>
   <si>
-    <t>Satellite_venue</t>
+    <t>meeting_venue</t>
   </si>
   <si>
     <t>satellite venue</t>
   </si>
   <si>
-    <t>Satellite_conducted_by</t>
+    <t>conducted_by</t>
   </si>
   <si>
     <t>Satellite conducted by</t>
@@ -807,7 +767,7 @@
     <t>Jointly</t>
   </si>
   <si>
-    <t>Data_posted_by</t>
+    <t>data_collector</t>
   </si>
   <si>
     <t>Data Posted By</t>
@@ -816,10 +776,7 @@
     <t>ANC1</t>
   </si>
   <si>
-    <t>Number_of_PPFP_Counseling</t>
-  </si>
-  <si>
-    <t>Please_take_picture_of_this_satellite</t>
+    <t>picture_satellite</t>
   </si>
   <si>
     <t>Please take picture of this satellite</t>
@@ -1264,9 +1221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00588512-2512-437A-AFC2-AA36CD2304F8}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -1277,7 +1236,7 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2014,9 +1973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C79AA2-DE37-49AF-9FE5-F12C669FC4A4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -2027,7 +1988,7 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,11 +2015,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2069,14 +2030,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2084,11 +2045,11 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2099,11 +2060,11 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2114,11 +2075,11 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2129,11 +2090,11 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2144,11 +2105,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>92</v>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2159,11 +2120,11 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2174,11 +2135,11 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>96</v>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2189,11 +2150,11 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2204,11 +2165,11 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>100</v>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -2218,11 +2179,11 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>102</v>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -2233,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>57</v>
@@ -2247,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>59</v>
@@ -2256,18 +2217,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.75">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>106</v>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2287,11 +2248,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE931D1C-8A0A-4CF1-97E8-6D18B2A66446}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -2302,7 +2265,7 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,14 +2292,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>109</v>
+      <c r="B2" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -2344,14 +2307,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>112</v>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2359,14 +2322,14 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>114</v>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -2374,14 +2337,14 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>117</v>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -2389,14 +2352,14 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>120</v>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -2404,14 +2367,14 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>122</v>
+      <c r="B7" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -2419,14 +2382,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>125</v>
+      <c r="B8" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -2434,14 +2397,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>127</v>
+      <c r="B9" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -2449,14 +2412,14 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>129</v>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -2464,14 +2427,14 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>131</v>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -2479,28 +2442,28 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>133</v>
+      <c r="B12" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>134</v>
+      <c r="B13" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2508,13 +2471,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2522,50 +2485,50 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>141</v>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="E17" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="E19" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="E20" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2573,13 +2536,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2587,13 +2550,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2601,13 +2564,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2615,13 +2578,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2629,13 +2592,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2643,13 +2606,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2657,23 +2620,23 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="E28" s="9" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2688,23 +2651,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="E31" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2712,13 +2675,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2726,23 +2689,23 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="E34" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2750,178 +2713,178 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="E36" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="E38" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="E41" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="E42" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="E43" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="E44" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="E45" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="E46" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="E47" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="E48" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="E65" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="E66" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="E67" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2929,13 +2892,13 @@
         <v>27</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -2944,13 +2907,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2958,13 +2921,13 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2972,21 +2935,21 @@
         <v>30</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="E72" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2994,13 +2957,13 @@
         <v>31</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3008,207 +2971,184 @@
         <v>32</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="E75" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:5">
+      <c r="C77" s="5"/>
       <c r="E77" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="E79" s="9" t="s">
-        <v>167</v>
+      <c r="A79" s="1">
+        <v>36</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="E81" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="E82" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="E83" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="C84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="E85" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="E86" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="E87" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="E88" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="E89" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C80" s="5" t="s">
+    </row>
+    <row r="90" spans="3:5">
+      <c r="E90" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30.75">
-      <c r="A81" s="1">
-        <v>36</v>
-      </c>
-      <c r="B81" s="10" t="s">
+    </row>
+    <row r="91" spans="3:5">
+      <c r="E91" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="5" t="s">
+    </row>
+    <row r="92" spans="3:5">
+      <c r="E92" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>37</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    </row>
+    <row r="93" spans="3:5">
+      <c r="E93" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="5" t="s">
+    </row>
+    <row r="94" spans="3:5">
+      <c r="E94" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D82" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" s="5" t="s">
+    </row>
+    <row r="95" spans="3:5">
+      <c r="E95" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="E83" s="5" t="s">
+    <row r="96" spans="3:5">
+      <c r="E96" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="E84" s="5" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>38</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="E85" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="C86" s="5"/>
-      <c r="E86" s="5" t="s">
+      <c r="D97" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="E87" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="E88" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="E89" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="E90" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="E91" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="E92" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="E93" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="E94" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="E95" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="E96" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="E97" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="E98" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>38</v>
-      </c>
-      <c r="B99" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D99" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3221,9 +3161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AF89F2-9A0E-4AC6-B3E9-099118F5A9D6}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -3234,7 +3176,7 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3261,14 +3203,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>249</v>
+      <c r="B2" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -3276,42 +3218,42 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>251</v>
+      <c r="B3" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>257</v>
+      <c r="B6" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -3319,11 +3261,11 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3334,11 +3276,11 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>81</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3349,11 +3291,11 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>84</v>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -3364,11 +3306,11 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>86</v>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3379,11 +3321,11 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>88</v>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3394,11 +3336,11 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>90</v>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -3408,11 +3350,11 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>92</v>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3423,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -3437,10 +3379,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -3450,11 +3392,11 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>98</v>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3465,11 +3407,11 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>100</v>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -3480,11 +3422,11 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>102</v>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3496,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>59</v>
@@ -3511,13 +3453,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E20" s="5"/>
     </row>

--- a/media/uploads/Jononi Script Register.xlsx
+++ b/media/uploads/Jononi Script Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://savethechildren1-my.sharepoint.com/personal/fyruz_zahin_savethechildren_org/Documents/Documents/Jononi scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5964C1-D12D-4DDD-A26F-4990C1C3C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DFD38D-F1F8-4D11-AC73-E2521F8327E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facility MIS" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="247">
   <si>
     <t>Question SR</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>visiting date</t>
-  </si>
-  <si>
-    <t>calender date</t>
   </si>
   <si>
     <t>name_bf</t>
@@ -1225,15 +1222,15 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1977,15 +1974,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2250,19 +2247,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE931D1C-8A0A-4CF1-97E8-6D18B2A66446}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2299,7 +2296,7 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -2314,7 +2311,7 @@
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2329,7 +2326,7 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -2338,13 +2335,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -2353,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -2368,13 +2365,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -2383,10 +2380,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
@@ -2398,10 +2395,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -2413,13 +2410,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -2428,13 +2425,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -2443,10 +2440,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -2457,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -2471,13 +2468,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" t="s">
         <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2485,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2499,36 +2496,36 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="E17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="E19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="E20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2536,10 +2533,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
@@ -2550,10 +2547,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
@@ -2564,10 +2561,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -2578,10 +2575,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
@@ -2592,13 +2589,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2606,10 +2603,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -2620,23 +2617,23 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="E28" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2651,23 +2648,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" t="s">
         <v>152</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="E31" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2675,13 +2672,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2689,23 +2686,23 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="E34" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2713,178 +2710,178 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="E36" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="E38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="E39" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="E41" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="E42" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="E43" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="E44" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="E45" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="E46" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="E47" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="E48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="E65" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="E66" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="E67" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2892,13 +2889,13 @@
         <v>27</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -2907,13 +2904,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2921,13 +2918,13 @@
         <v>29</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2935,21 +2932,21 @@
         <v>30</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="E72" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2957,13 +2954,13 @@
         <v>31</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2971,21 +2968,21 @@
         <v>32</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="D74" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="E75" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2993,22 +2990,22 @@
         <v>34</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="C77" s="5"/>
       <c r="E77" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3016,13 +3013,13 @@
         <v>35</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3030,10 +3027,10 @@
         <v>36</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D79" t="s">
         <v>94</v>
@@ -3044,97 +3041,97 @@
         <v>37</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="81" spans="3:5">
       <c r="E81" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="3:5">
       <c r="E82" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="3:5">
       <c r="E83" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="3:5">
       <c r="C84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="E85" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="E86" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="3:5">
       <c r="E87" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="E88" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="E89" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="3:5">
       <c r="E90" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="3:5">
       <c r="E91" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="3:5">
       <c r="E92" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="3:5">
       <c r="E93" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="3:5">
       <c r="E94" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="3:5">
       <c r="E95" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="3:5">
       <c r="E96" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3142,13 +3139,13 @@
         <v>38</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" t="s">
         <v>232</v>
-      </c>
-      <c r="D97" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3165,15 +3162,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3204,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -3219,27 +3216,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" t="s">
         <v>237</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3247,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -3265,7 +3262,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3453,13 +3450,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" t="s">
         <v>246</v>
-      </c>
-      <c r="D20" t="s">
-        <v>247</v>
       </c>
       <c r="E20" s="5"/>
     </row>
